--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{62CEC3D5-38B7-4E4C-B361-1589C0E6A51E}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40BED901-5719-4834-B888-CDF58AC7A8C8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,31 +33,79 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>At least hourly</t>
-  </si>
-  <si>
-    <t>At least daily</t>
-  </si>
-  <si>
-    <t>At least weekly</t>
-  </si>
-  <si>
-    <t>At least a few times per month</t>
-  </si>
-  <si>
-    <t>Once a month or less frequently</t>
-  </si>
-  <si>
-    <t>Freq</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+  <si>
+    <t>Week 1</t>
+  </si>
+  <si>
+    <t>Week 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week 3 </t>
+  </si>
+  <si>
+    <t>Week 4</t>
+  </si>
+  <si>
+    <t>DF</t>
+  </si>
+  <si>
+    <t>LT</t>
+  </si>
+  <si>
+    <t>MTTR</t>
+  </si>
+  <si>
+    <t>CFR</t>
+  </si>
+  <si>
+    <t>REX  Software Delivery Performance</t>
+  </si>
+  <si>
+    <t>DORA Metrics</t>
+  </si>
+  <si>
+    <t>AppCat DORA Ranking</t>
+  </si>
+  <si>
+    <t>Deployment Frequency</t>
+  </si>
+  <si>
+    <t>Weekly</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>Lead Time for Changes (Median)</t>
+  </si>
+  <si>
+    <t>* One Month</t>
+  </si>
+  <si>
+    <t>* C</t>
+  </si>
+  <si>
+    <t>&lt; Hour</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Change Fail %</t>
+  </si>
+  <si>
+    <t>0-15 %</t>
+  </si>
+  <si>
+    <t>*Less Than</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -65,16 +113,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -82,13 +170,145 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -104,6 +324,912 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Test!$E$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>LT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>Test!$F$8:$I$8</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Week 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Week 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Week 3 </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Week 4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Test!$F$10:$I$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9599-48C9-AF4D-C29E1F63C73A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1362941807"/>
+        <c:axId val="1181092015"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1362941807"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1181092015"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1181092015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1362941807"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>511175</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>155575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>136525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBFCF82A-A103-4724-A618-45F9A33C7620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -403,115 +1529,165 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="8.7265625" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="8"/>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="F8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="15"/>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+      <c r="G9">
+        <v>6</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="B1">
-        <v>2022</v>
-      </c>
-      <c r="C1">
-        <v>2021</v>
-      </c>
-      <c r="D1">
-        <v>2020</v>
+      <c r="F10">
+        <v>30</v>
+      </c>
+      <c r="G10">
+        <v>30</v>
+      </c>
+      <c r="H10">
+        <v>24</v>
+      </c>
+      <c r="I10">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.6666666666666666E-2</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5.7803468208092483E-3</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.5423728813559324E-2</v>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.9364161849710976E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>8.050847457627118E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.26666666666666666</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.2138728323699422</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.24576271186440679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.46820809248554912</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.34322033898305082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.23333333333333334</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0.24277456647398843</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.30508474576271188</v>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -740,21 +1916,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -773,11 +1950,19 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{40BED901-5719-4834-B888-CDF58AC7A8C8}"/>
+  <xr:revisionPtr revIDLastSave="64" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A800F53-C52F-451C-9C62-BE039CDC0105}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>Week 1</t>
   </si>
@@ -47,22 +47,7 @@
     <t>Week 4</t>
   </si>
   <si>
-    <t>DF</t>
-  </si>
-  <si>
-    <t>LT</t>
-  </si>
-  <si>
     <t>MTTR</t>
-  </si>
-  <si>
-    <t>CFR</t>
-  </si>
-  <si>
-    <t>REX  Software Delivery Performance</t>
-  </si>
-  <si>
-    <t>DORA Metrics</t>
   </si>
   <si>
     <t>AppCat DORA Ranking</t>
@@ -98,25 +83,23 @@
     <t>0-15 %</t>
   </si>
   <si>
-    <t>*Less Than</t>
+    <t>Software Delivery Metric</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Mtetric</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -162,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -175,26 +158,6 @@
         <color auto="1"/>
       </left>
       <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -251,64 +214,30 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -381,11 +310,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Test!$E$10</c:f>
+              <c:f>Test!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LT</c:v>
+                  <c:v>Lead Time for Changes (Median)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -430,7 +359,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Test!$F$8:$I$8</c:f>
+              <c:f>Test!$E$1:$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -450,7 +379,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Test!$F$10:$I$10</c:f>
+              <c:f>Test!$E$3:$H$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -1195,16 +1124,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>511175</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>866775</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>155575</xdr:rowOff>
+      <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>206375</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>136525</xdr:rowOff>
+      <xdr:rowOff>155575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1529,10 +1458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1540,154 +1469,128 @@
     <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7265625" customWidth="1"/>
+    <col min="4" max="4" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4"/>
+      <c r="D2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+      <c r="F2">
+        <v>6</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="C3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>30</v>
+      </c>
+      <c r="G3">
+        <v>24</v>
+      </c>
+      <c r="H3">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="9" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="F8" t="s">
-        <v>0</v>
-      </c>
-      <c r="G8" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="15"/>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>6</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E10" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10">
-        <v>30</v>
-      </c>
-      <c r="G10">
-        <v>30</v>
-      </c>
-      <c r="H10">
-        <v>24</v>
-      </c>
-      <c r="I10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E11" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="E12" t="s">
-        <v>7</v>
+      <c r="C5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -1916,12 +1819,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1932,6 +1829,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1950,15 +1856,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>

--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A800F53-C52F-451C-9C62-BE039CDC0105}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1A9FA61D-E4AF-4139-9FF3-494E678AA562}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Week 1</t>
   </si>
@@ -87,9 +87,6 @@
   </si>
   <si>
     <t>Value</t>
-  </si>
-  <si>
-    <t>Mtetric</t>
   </si>
 </sst>
 </file>
@@ -145,7 +142,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -210,22 +207,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -237,7 +223,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -269,56 +254,25 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11208055723803756"/>
+          <c:y val="7.407407407407407E-2"/>
+          <c:w val="0.88791944276196244"/>
+          <c:h val="0.8416746864975212"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Test!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Lead Time for Changes (Median)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -359,7 +313,7 @@
           </c:trendline>
           <c:cat>
             <c:strRef>
-              <c:f>Test!$E$1:$H$1</c:f>
+              <c:f>Test!$D$1:$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -379,7 +333,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Test!$E$3:$H$3</c:f>
+              <c:f>Test!$D$3:$G$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -400,6 +354,27 @@
           </c:val>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:filteredSeriesTitle>
+                <c15:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Test!#REF!</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>#REF!</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c15:tx>
+              </c15:filteredSeriesTitle>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9599-48C9-AF4D-C29E1F63C73A}"/>
             </c:ext>
@@ -1130,7 +1105,7 @@
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>155575</xdr:rowOff>
@@ -1458,10 +1433,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1469,10 +1444,9 @@
     <col min="1" max="1" width="27.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -1482,23 +1456,20 @@
       <c r="C1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>18</v>
+      <c r="D1" t="s">
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
@@ -1508,23 +1479,20 @@
       <c r="C2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>3</v>
       </c>
-      <c r="F2">
-        <v>6</v>
-      </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-      <c r="H2">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1534,23 +1502,20 @@
       <c r="C3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
+      <c r="D3">
+        <v>30</v>
       </c>
       <c r="E3">
         <v>30</v>
       </c>
       <c r="F3">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="G3">
-        <v>24</v>
-      </c>
-      <c r="H3">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
@@ -1560,11 +1525,20 @@
       <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>4</v>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1574,8 +1548,17 @@
       <c r="C5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1585,9 +1568,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1820,19 +1806,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1857,9 +1839,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="112" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20F10753-E0E6-426F-8F04-6B2245E50CD8}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9ECBD2E-0338-4FA4-97EC-C0876E425DB3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,15 +556,6 @@
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1">
-        <v>0</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>4</v>
-      </c>
       <c r="H1">
         <v>1</v>
       </c>
@@ -591,6 +582,9 @@
       <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -602,6 +596,9 @@
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
+      <c r="D3">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -613,6 +610,9 @@
       <c r="C4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -623,6 +623,9 @@
       </c>
       <c r="C5" s="6" t="s">
         <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -641,6 +644,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -869,15 +881,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -885,6 +888,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -903,14 +914,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>

--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B9ECBD2E-0338-4FA4-97EC-C0876E425DB3}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B013278-8E2E-4206-8A45-3DF31602970A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -583,7 +583,7 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -653,6 +653,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -881,12 +887,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>
@@ -896,6 +896,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -912,13 +921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6B013278-8E2E-4206-8A45-3DF31602970A}"/>
+  <xr:revisionPtr revIDLastSave="121" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E189D09A-F5DD-49EA-957D-E46D0D23A880}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -77,7 +77,7 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Deployment Frequency (4 Weeks)</t>
+    <t># Deployments</t>
   </si>
 </sst>
 </file>
@@ -531,7 +531,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -653,12 +653,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -887,6 +881,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>
@@ -896,15 +896,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -921,4 +912,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="121" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E189D09A-F5DD-49EA-957D-E46D0D23A880}"/>
+  <xr:revisionPtr revIDLastSave="138" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D45DF7-48C6-47F3-89B2-63BC6CF0862E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
   <si>
     <t>MTTR</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t># Deployments</t>
+  </si>
+  <si>
+    <t>Lead Time (Days)</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -214,6 +217,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,7 +535,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -540,6 +544,7 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.90625" customWidth="1"/>
     <col min="9" max="9" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -556,6 +561,9 @@
       <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
+      <c r="E1" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H1">
         <v>1</v>
       </c>
@@ -583,7 +591,10 @@
         <v>4</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
@@ -597,7 +608,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
@@ -611,7 +625,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
@@ -625,7 +642,10 @@
         <v>9</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -644,12 +664,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -882,15 +899,19 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -915,10 +936,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="138" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D5D45DF7-48C6-47F3-89B2-63BC6CF0862E}"/>
+  <xr:revisionPtr revIDLastSave="149" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14875809-63F5-4A3D-AC66-23D3E24BB6D5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>MTTR</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Lead Time (Days)</t>
+  </si>
+  <si>
+    <t>Failed Changes</t>
   </si>
 </sst>
 </file>
@@ -535,7 +538,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -545,6 +548,7 @@
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.90625" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -564,6 +568,12 @@
       <c r="E1" s="9" t="s">
         <v>15</v>
       </c>
+      <c r="F1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>16</v>
+      </c>
       <c r="H1">
         <v>1</v>
       </c>
@@ -596,6 +606,12 @@
       <c r="E2">
         <v>20</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
@@ -613,6 +629,12 @@
       <c r="E3">
         <v>24</v>
       </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
@@ -630,6 +652,12 @@
       <c r="E4">
         <v>19</v>
       </c>
+      <c r="F4">
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
@@ -646,6 +674,12 @@
       </c>
       <c r="E5">
         <v>112</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -664,12 +698,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -898,6 +926,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -908,15 +942,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -935,6 +960,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>

--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{14875809-63F5-4A3D-AC66-23D3E24BB6D5}"/>
+  <xr:revisionPtr revIDLastSave="157" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F20DFB1-1D15-4F18-AD87-D12A9EDFFD45}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
   <si>
     <t>MTTR</t>
   </si>
@@ -77,13 +77,16 @@
     <t>Value</t>
   </si>
   <si>
-    <t># Deployments</t>
-  </si>
-  <si>
     <t>Lead Time (Days)</t>
   </si>
   <si>
     <t>Failed Changes</t>
+  </si>
+  <si>
+    <t>Oct. Deployments</t>
+  </si>
+  <si>
+    <t>Sep. Deployments</t>
   </si>
 </sst>
 </file>
@@ -208,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -221,6 +224,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -547,12 +551,13 @@
     <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.26953125" customWidth="1"/>
+    <col min="6" max="6" width="18.90625" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -563,34 +568,37 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1">
+      <c r="I1">
         <v>1</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>6</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>5</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -604,16 +612,19 @@
         <v>1</v>
       </c>
       <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2">
         <v>20</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -627,16 +638,19 @@
         <v>5</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
         <v>24</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -650,16 +664,19 @@
         <v>6</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>19</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.5</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -673,24 +690,29 @@
         <v>3</v>
       </c>
       <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5">
         <v>112</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
+      <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="E10" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -698,6 +720,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -926,22 +963,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -958,21 +997,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="157" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0F20DFB1-1D15-4F18-AD87-D12A9EDFFD45}"/>
+  <xr:revisionPtr revIDLastSave="169" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2049AFD-80D1-4F96-AAB5-E476B9BCA4C4}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t>MTTR</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Lead Time (Days)</t>
-  </si>
-  <si>
     <t>Failed Changes</t>
   </si>
   <si>
@@ -87,6 +84,12 @@
   </si>
   <si>
     <t>Sep. Deployments</t>
+  </si>
+  <si>
+    <t>Lead Time Oct. (Days)</t>
+  </si>
+  <si>
+    <t>Lead Time Sept. (Days)</t>
   </si>
 </sst>
 </file>
@@ -211,7 +214,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -225,6 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -539,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -552,12 +556,12 @@
     <col min="3" max="3" width="19.6328125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.26953125" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="18.90625" customWidth="1"/>
+    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -568,37 +572,40 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1">
+      <c r="J1">
         <v>1</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>6</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>5</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -618,13 +625,16 @@
         <v>20</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -644,13 +654,16 @@
         <v>24</v>
       </c>
       <c r="G3">
+        <v>75</v>
+      </c>
+      <c r="H3">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -670,13 +683,16 @@
         <v>19</v>
       </c>
       <c r="G4">
+        <v>73</v>
+      </c>
+      <c r="H4">
         <v>0.5</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -696,19 +712,32 @@
         <v>112</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="F8" s="11">
+        <f>AVERAGE(F2:F7)</f>
+        <v>43.75</v>
+      </c>
+      <c r="G8" s="11">
+        <f>AVERAGE(G2:G7)</f>
+        <v>52.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -720,21 +749,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -963,24 +977,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -997,4 +1009,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2049AFD-80D1-4F96-AAB5-E476B9BCA4C4}"/>
+  <xr:revisionPtr revIDLastSave="190" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16DD141D-0A9A-4DE3-BE0D-AB39AB99DFCD}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>MTTR</t>
   </si>
@@ -77,9 +77,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Failed Changes</t>
-  </si>
-  <si>
     <t>Oct. Deployments</t>
   </si>
   <si>
@@ -90,6 +87,18 @@
   </si>
   <si>
     <t>Lead Time Sept. (Days)</t>
+  </si>
+  <si>
+    <t>MTTR Oct.</t>
+  </si>
+  <si>
+    <t>Failed Changes Oct.</t>
+  </si>
+  <si>
+    <t>MTTR Sept.</t>
+  </si>
+  <si>
+    <t>Failed Changes Sept.</t>
   </si>
 </sst>
 </file>
@@ -543,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -557,11 +566,14 @@
     <col min="4" max="4" width="29.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29.26953125" customWidth="1"/>
     <col min="6" max="7" width="18.90625" customWidth="1"/>
-    <col min="9" max="9" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="28.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.26953125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" customWidth="1"/>
+    <col min="13" max="13" width="28.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -572,40 +584,46 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>0</v>
-      </c>
       <c r="I1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1">
+        <v>20</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1">
         <v>1</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="L1">
+      <c r="N1">
         <v>6</v>
       </c>
-      <c r="M1">
+      <c r="O1">
         <v>5</v>
       </c>
-      <c r="N1">
+      <c r="P1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -633,8 +651,14 @@
       <c r="I2">
         <v>0</v>
       </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>5</v>
       </c>
@@ -657,13 +681,19 @@
         <v>75</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -691,8 +721,14 @@
       <c r="I4">
         <v>0</v>
       </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>10</v>
       </c>
@@ -720,8 +756,14 @@
       <c r="I5">
         <v>0</v>
       </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="F8" s="11">
         <f>AVERAGE(F2:F7)</f>
         <v>43.75</v>
@@ -731,13 +773,13 @@
         <v>52.75</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E9" s="10"/>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
         <v>10</v>
       </c>
@@ -749,6 +791,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -977,12 +1025,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -993,6 +1035,15 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1011,15 +1062,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>

--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{16DD141D-0A9A-4DE3-BE0D-AB39AB99DFCD}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2BA10BE-0E65-40E2-A8AB-1DBF68B7102A}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Oct. Deployments</t>
-  </si>
-  <si>
     <t>Sep. Deployments</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Failed Changes Sept.</t>
+  </si>
+  <si>
+    <t>Oct. Days Deployed</t>
   </si>
 </sst>
 </file>
@@ -554,8 +554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{166EEE50-7244-4241-B36A-A71AED2D81D2}">
   <dimension ref="A1:P10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,28 +584,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>20</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -637,7 +637,7 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>20</v>
@@ -669,10 +669,10 @@
         <v>7</v>
       </c>
       <c r="D3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>24</v>
@@ -704,10 +704,10 @@
         <v>9</v>
       </c>
       <c r="D4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>19</v>
@@ -739,10 +739,10 @@
         <v>9</v>
       </c>
       <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
         <v>3</v>
-      </c>
-      <c r="E5">
-        <v>6</v>
       </c>
       <c r="F5">
         <v>112</v>
@@ -764,6 +764,14 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="D8" s="11">
+        <f>AVERAGE(D2:D7)</f>
+        <v>1.75</v>
+      </c>
+      <c r="E8" s="11">
+        <f>AVERAGE(E2:E7)</f>
+        <v>2.25</v>
+      </c>
       <c r="F8" s="11">
         <f>AVERAGE(F2:F7)</f>
         <v>43.75</v>
@@ -787,6 +795,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -797,6 +806,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -1025,15 +1043,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
@@ -1044,6 +1053,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1060,12 +1077,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="209" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C2BA10BE-0E65-40E2-A8AB-1DBF68B7102A}"/>
+  <xr:revisionPtr revIDLastSave="211" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49906365-7303-4A94-B791-F71119040BF6}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -77,9 +77,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Sep. Deployments</t>
-  </si>
-  <si>
     <t>Lead Time Oct. (Days)</t>
   </si>
   <si>
@@ -98,7 +95,10 @@
     <t>Failed Changes Sept.</t>
   </si>
   <si>
-    <t>Oct. Days Deployed</t>
+    <t>Oct. Days Deployed per Week</t>
+  </si>
+  <si>
+    <t>Sep. Days Deployed per Week</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -584,28 +584,28 @@
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>19</v>
-      </c>
-      <c r="J1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>20</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -806,15 +806,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B603587C0FF8C8408FC62C02A61BB4CE" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fad6ab34f0dfff4b8fb0f9ccf66ee8b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c9320370-d4b9-42d8-8551-f2fc20d53f0a" xmlns:ns4="4184bcc2-9eac-43c5-a14d-fb655ac4d1b8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5f154e8b041b9b9265fea3bd106f905a" ns3:_="" ns4:_="">
     <xsd:import namespace="c9320370-d4b9-42d8-8551-f2fc20d53f0a"/>
@@ -1043,6 +1034,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
@@ -1053,14 +1053,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D78EBE49-D645-4EAB-8AED-C73169D669C3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1077,4 +1069,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/testPython.xlsx
+++ b/testPython.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\OneDrive - Wiley\Documents\SNOW Metrics\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dthatcher\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="211" documentId="8_{9AEF8998-75E0-4EA4-9B46-1C4850F9C567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{49906365-7303-4A94-B791-F71119040BF6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B12945-87E7-4A0F-9BA8-9FA3213B6D05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FAD981F1-A6C4-4278-8AFD-C4FF2301D36A}"/>
   </bookViews>
@@ -53,12 +53,6 @@
     <t>Lead Time for Changes (Median)</t>
   </si>
   <si>
-    <t>* One Month</t>
-  </si>
-  <si>
-    <t>* C</t>
-  </si>
-  <si>
     <t>&lt; Hour</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>Sep. Days Deployed per Week</t>
+  </si>
+  <si>
+    <t>One Month</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -555,7 +555,7 @@
   <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -575,37 +575,37 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="9" t="s">
         <v>17</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="L1">
         <v>1</v>
@@ -663,10 +663,10 @@
         <v>5</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -698,10 +698,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -730,13 +730,13 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -789,7 +789,7 @@
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="D10" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" s="10"/>
     </row>
@@ -800,9 +800,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1035,19 +1038,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1072,9 +1071,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C9249F1E-12E7-40EC-AF88-484635E01506}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C7B553E-D3D7-4747-8140-5D66CA190B05}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>